--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail3 Features.xlsx
@@ -4063,7 +4063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,29 +4074,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4117,115 +4115,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4242,72 +4230,66 @@
         <v>2.26813269461336e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2443393323972532</v>
+        <v>1.118423288842864e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0395799219261237</v>
+        <v>7.188766174110206e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.118423288842864e-07</v>
+        <v>-0.08040761196265997</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.188766174110206e-07</v>
+        <v>0.1498470569308106</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08040761196265997</v>
+        <v>0.02886545546027954</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1498470569308106</v>
+        <v>1.916545494660054</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02886545546027954</v>
+        <v>2.582276938450906</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.934557782995088</v>
+        <v>4.663080954337214</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.582276938450906</v>
+        <v>3.968634134426258e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.663080954337214</v>
+        <v>11040455566.78115</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.968634134426258e-18</v>
+        <v>1.090216763414263e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11040455566.78115</v>
+        <v>483.7433990936927</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.090216763414263e-08</v>
+        <v>0.0001561881684295696</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>483.7433990936927</v>
+        <v>14.073728190067</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001561881684295696</v>
+        <v>0.9776245812589843</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14.073728190067</v>
+        <v>0.03093616321413725</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9776245812589843</v>
+        <v>4.206942901841932</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03093616321413725</v>
+        <v>0.9579175028767964</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.206942901841932</v>
+        <v>0.9952060190618773</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9579175028767964</v>
+        <v>82</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9952060190618773</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.630077688874831</v>
       </c>
     </row>
@@ -4322,72 +4304,66 @@
         <v>2.12500561032094e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.06985447565844689</v>
+        <v>9.352026002845909e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8037356404076337</v>
+        <v>7.17227280510703e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.352026002845909e-08</v>
+        <v>-0.07016768378695265</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.17227280510703e-07</v>
+        <v>0.1250034594180964</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07016768378695265</v>
+        <v>0.02051331954747618</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1250034594180964</v>
+        <v>1.899485767579475</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02051331954747618</v>
+        <v>2.58843027266532</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.912817164684439</v>
+        <v>5.899704108356144</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.58843027266532</v>
+        <v>5.074256059029761e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.899704108356144</v>
+        <v>8901126929.481346</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.074256059029761e-18</v>
+        <v>1.34764428350672e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8901126929.481346</v>
+        <v>402.0336151316296</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.34764428350672e-08</v>
+        <v>0.0001598764042888507</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>402.0336151316296</v>
+        <v>12.03828713070847</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001598764042888507</v>
+        <v>1.146988001215049</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.03828713070847</v>
+        <v>0.02316934559203244</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.146988001215049</v>
+        <v>3.991220275958204</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02316934559203244</v>
+        <v>0.9567021787833896</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.991220275958204</v>
+        <v>1.245013271382897</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9567021787833896</v>
+        <v>87</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.245013271382897</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.165938214826642</v>
       </c>
     </row>
@@ -4402,72 +4378,66 @@
         <v>2.038560601660522e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2254385920115426</v>
+        <v>7.968059937000346e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.233689528077642</v>
+        <v>7.158689348977542e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.968059937000346e-08</v>
+        <v>-0.0608044153113878</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.158689348977542e-07</v>
+        <v>0.1046105077128726</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0608044153113878</v>
+        <v>0.01461863168539257</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1046105077128726</v>
+        <v>1.895794148646592</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01461863168539257</v>
+        <v>2.295089412112009</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.905233527385368</v>
+        <v>5.904791814385058</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.295089412112009</v>
+        <v>9.486226547002892e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.904791814385058</v>
+        <v>4775477299.502872</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.486226547002892e-18</v>
+        <v>2.511251266969765e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4775477299.502872</v>
+        <v>216.3351365394641</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.511251266969765e-08</v>
+        <v>0.0001999333338135599</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>216.3351365394641</v>
+        <v>9.049351895898612</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001999333338135599</v>
+        <v>1.819618403842376</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.049351895898612</v>
+        <v>0.01637269460183783</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.819618403842376</v>
+        <v>3.414000005487206</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01637269460183783</v>
+        <v>0.9581979865389492</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.414000005487206</v>
+        <v>1.284129436552851</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9581979865389492</v>
+        <v>71</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.284129436552851</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.314195081554116</v>
       </c>
     </row>
@@ -4482,72 +4452,66 @@
         <v>1.988103910422157e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2739579690544884</v>
+        <v>6.933771817876645e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.441969358363617</v>
+        <v>7.147251026575803e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.933771817876645e-08</v>
+        <v>-0.05331168219870117</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.147251026575803e-07</v>
+        <v>0.08949184423136337</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05331168219870117</v>
+        <v>0.01083811300809392</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08949184423136337</v>
+        <v>1.894133197271681</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01083811300809392</v>
+        <v>2.162234883949739</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.908386306669399</v>
+        <v>4.704658721938534</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.162234883949739</v>
+        <v>1.636185221226802e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.704658721938534</v>
+        <v>2823857432.229321</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.636185221226802e-17</v>
+        <v>4.248470584874439e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2823857432.229321</v>
+        <v>130.4722041050073</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.248470584874439e-08</v>
+        <v>0.0001957526889303379</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>130.4722041050073</v>
+        <v>9.363468100353177</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001957526889303379</v>
+        <v>1.578361647690574</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.363468100353177</v>
+        <v>0.01716252595080106</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.578361647690574</v>
+        <v>3.027547255205191</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01716252595080106</v>
+        <v>0.9579828087652343</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.027547255205191</v>
+        <v>1.309821860720431</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9579828087652343</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.309821860720431</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6381456741993885</v>
       </c>
     </row>
@@ -4562,72 +4526,66 @@
         <v>1.960847228508538e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.260966463272977</v>
+        <v>6.142823490128444e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.545513335985112</v>
+        <v>7.137328008672921e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.142823490128444e-08</v>
+        <v>-0.04755437032089604</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.137328008672921e-07</v>
+        <v>0.07852304078560655</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04755437032089604</v>
+        <v>0.008419373259960745</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07852304078560655</v>
+        <v>1.893746292313107</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.008419373259960745</v>
+        <v>2.259712945168539</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.906112466500476</v>
+        <v>4.383299451330074</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.259712945168539</v>
+        <v>1.88489183583702e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.383299451330074</v>
+        <v>2449860475.437491</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.88489183583702e-17</v>
+        <v>4.893490796610378e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2449860475.437491</v>
+        <v>113.1277463663212</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.893490796610378e-08</v>
+        <v>0.0001827305860521855</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>113.1277463663212</v>
+        <v>10.80287400296591</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001827305860521855</v>
+        <v>1.144380877851288</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.80287400296591</v>
+        <v>0.02132504070058156</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.144380877851288</v>
+        <v>2.763343348039675</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02132504070058156</v>
+        <v>0.9582476091870579</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.763343348039675</v>
+        <v>1.31486192851697</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9582476091870579</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.31486192851697</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.459732909554019</v>
       </c>
     </row>
@@ -4642,72 +4600,66 @@
         <v>1.949016663813658e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2158408096957059</v>
+        <v>5.530508821663488e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.600410773083919</v>
+        <v>7.12849122882083e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.530508821663488e-08</v>
+        <v>-0.04311861750679618</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.12849122882083e-07</v>
+        <v>0.07091635687936321</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04311861750679618</v>
+        <v>0.00688361823127992</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07091635687936321</v>
+        <v>1.894869800918691</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.00688361823127992</v>
+        <v>2.206208506977207</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.904709430330225</v>
+        <v>4.338225687221831</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.206208506977207</v>
+        <v>1.924263014332056e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.338225687221831</v>
+        <v>2408572770.043626</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.924263014332056e-17</v>
+        <v>4.981119496675111e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2408572770.043626</v>
+        <v>111.6307844999484</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.981119496675111e-08</v>
+        <v>0.0001898313458874372</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>111.6307844999484</v>
+        <v>11.80739826852211</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001898313458874372</v>
+        <v>1.065352592277582</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.80739826852211</v>
+        <v>0.02646527138085785</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.065352592277582</v>
+        <v>2.485349021676061</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02646527138085785</v>
+        <v>0.9592123050598318</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.485349021676061</v>
+        <v>1.315439256223567</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9592123050598318</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.315439256223567</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4074414351578208</v>
       </c>
     </row>
@@ -4722,72 +4674,66 @@
         <v>1.947180973796113e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1562510866742398</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.632267189992489</v>
+        <v>7.120444978945172e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03968827817317095</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.120444978945172e-07</v>
+        <v>0.06615000893528736</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03968827817317095</v>
+        <v>0.005948357881433755</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06615000893528736</v>
+        <v>1.893871658055051</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005948357881433755</v>
+        <v>2.185398957303851</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.902711489359646</v>
+        <v>4.340154149263498</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.185398957303851</v>
+        <v>1.922553377472109e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.340154149263498</v>
+        <v>2385022670.504107</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.922553377472109e-17</v>
+        <v>5.022980556144189e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2385022670.504107</v>
+        <v>109.3612408822211</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.022980556144189e-08</v>
+        <v>0.0001848344196473433</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>109.3612408822211</v>
+        <v>11.06191147072385</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001848344196473433</v>
+        <v>1.119876142816242</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.06191147072385</v>
+        <v>0.02261742740997903</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.119876142816242</v>
+        <v>2.633194241937424</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02261742740997903</v>
+        <v>0.959316039323706</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.633194241937424</v>
+        <v>1.314010514474734</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.959316039323706</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.314010514474734</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3885974129690862</v>
       </c>
     </row>
@@ -4802,72 +4748,66 @@
         <v>1.9513850961967e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.0916349132280202</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.6517477175023</v>
+        <v>7.11297807671886e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03706933049029971</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.11297807671886e-07</v>
+        <v>0.06349095526367086</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03706933049029971</v>
+        <v>0.005403890102330515</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06349095526367086</v>
+        <v>1.898640493348232</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.005403890102330515</v>
+        <v>2.145620005870351</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.903386376821683</v>
+        <v>4.336565700309841</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.145620005870351</v>
+        <v>1.925736467290435e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.336565700309841</v>
+        <v>2385673437.134002</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.925736467290435e-17</v>
+        <v>5.028090201284762e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2385673437.134002</v>
+        <v>109.6020922388244</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.028090201284762e-08</v>
+        <v>0.0001842778887362665</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>109.6020922388244</v>
+        <v>9.261038787811872</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001842778887362665</v>
+        <v>1.367067528252167</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.261038787811872</v>
+        <v>0.0158049320936241</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.367067528252167</v>
+        <v>2.854576146478105</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0158049320936241</v>
+        <v>0.9588693259424272</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.854576146478105</v>
+        <v>1.319289210164374</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9588693259424272</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.319289210164374</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.367962448046444</v>
       </c>
     </row>
@@ -4882,72 +4822,66 @@
         <v>1.958834888805577e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02622626776181447</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.662816180378471</v>
+        <v>7.105940411732918e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.0350215594929684</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.105940411732918e-07</v>
+        <v>0.06214397875920071</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0350215594929684</v>
+        <v>0.005087801090705084</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06214397875920071</v>
+        <v>1.894195419359191</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005087801090705084</v>
+        <v>2.184203785555238</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.900514766139467</v>
+        <v>4.306607538628565</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.184203785555238</v>
+        <v>1.952621752016381e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.306607538628565</v>
+        <v>2291044527.963826</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.952621752016381e-17</v>
+        <v>5.20741220898877e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2291044527.963826</v>
+        <v>102.4908708167916</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.20741220898877e-08</v>
+        <v>0.0001923520742367445</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>102.4908708167916</v>
+        <v>8.958280620677161</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001923520742367445</v>
+        <v>1.526755123217578</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.958280620677161</v>
+        <v>0.01543640623855805</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.526755123217578</v>
+        <v>2.862166453528004</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01543640623855805</v>
+        <v>0.9576528352642724</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.862166453528004</v>
+        <v>1.334039992699404</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9576528352642724</v>
+        <v>26</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.334039992699404</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3430716405479221</v>
       </c>
     </row>
@@ -4962,72 +4896,66 @@
         <v>1.967378985786332e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.03861235926932268</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.666629808957915</v>
+        <v>7.099228461265459e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03344027390023533</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.099228461265459e-07</v>
+        <v>0.06168288084514319</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03344027390023533</v>
+        <v>0.004922920084611814</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06168288084514319</v>
+        <v>1.887216128380292</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004922920084611814</v>
+        <v>2.158863697433836</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.899488229102928</v>
+        <v>4.260617777601336</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.158863697433836</v>
+        <v>1.995003055960285e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.260617777601336</v>
+        <v>2234794967.097767</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.995003055960285e-17</v>
+        <v>5.332215295474829e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2234794967.097767</v>
+        <v>99.63660809614757</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.332215295474829e-08</v>
+        <v>0.0001856411023342733</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>99.63660809614757</v>
+        <v>10.53904513223391</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001856411023342733</v>
+        <v>1.179419348984549</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.53904513223391</v>
+        <v>0.02061943055552592</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.179419348984549</v>
+        <v>2.709871878858055</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02061943055552592</v>
+        <v>0.9578316980617524</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.709871878858055</v>
+        <v>1.368788213324192</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9578316980617524</v>
+        <v>26</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.368788213324192</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3405576648900733</v>
       </c>
     </row>
@@ -5042,72 +4970,66 @@
         <v>1.97510173459792e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1030290292052803</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.66279588710493</v>
+        <v>7.092752590602157e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03232972305792462</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.092752590602157e-07</v>
+        <v>0.06179237511055404</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03232972305792462</v>
+        <v>0.004863569216480653</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06179237511055404</v>
+        <v>1.881900902310579</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004863569216480653</v>
+        <v>2.108908201319679</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.899809394110483</v>
+        <v>4.194357454197279</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.108908201319679</v>
+        <v>2.058533015301292e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.194357454197279</v>
+        <v>2183012916.423971</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.058533015301292e-17</v>
+        <v>5.451409504216339e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2183012916.423971</v>
+        <v>98.10032527971283</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.451409504216339e-08</v>
+        <v>0.0001940707080002122</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>98.10032527971283</v>
+        <v>12.05005653727968</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001940707080002122</v>
+        <v>1.046023845344541</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.05005653727968</v>
+        <v>0.02817981640976164</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.046023845344541</v>
+        <v>2.426441929861576</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02817981640976164</v>
+        <v>0.9571424876874323</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.426441929861576</v>
+        <v>1.345691446528207</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9571424876874323</v>
+        <v>26</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.345691446528207</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3461091253500959</v>
       </c>
     </row>
@@ -5122,72 +5044,66 @@
         <v>1.980072875021385e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1679226336542307</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.649641933435837</v>
+        <v>7.086428164273136e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03167891849924</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.086428164273136e-07</v>
+        <v>0.06215314088336622</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03167891849924</v>
+        <v>0.004866419856367959</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06215314088336622</v>
+        <v>1.873153390401992</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004866419856367959</v>
+        <v>2.08650613454167</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.892457598193239</v>
+        <v>4.094983525034102</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.08650613454167</v>
+        <v>2.159655093270736e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.094983525034102</v>
+        <v>2058517536.785516</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.159655093270736e-17</v>
+        <v>5.770652014834152e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2058517536.785516</v>
+        <v>91.51526470036808</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.770652014834152e-08</v>
+        <v>0.0001894665132123021</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>91.51526470036808</v>
+        <v>11.48854887309899</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001894665132123021</v>
+        <v>1.079627824275237</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.48854887309899</v>
+        <v>0.02500707029976555</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.079627824275237</v>
+        <v>2.568879303514242</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02500707029976555</v>
+        <v>0.9564607094718033</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.568879303514242</v>
+        <v>1.321561045731731</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9564607094718033</v>
+        <v>26</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.321561045731731</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.356092112103389</v>
       </c>
     </row>
@@ -5202,72 +5118,66 @@
         <v>1.980245393549118e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2342131802039034</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.624465167246283</v>
+        <v>7.080193845765086e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03124052907083264</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.080193845765086e-07</v>
+        <v>0.06279902374662158</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03124052907083264</v>
+        <v>0.004919025832704825</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06279902374662158</v>
+        <v>1.876800566333874</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004919025832704825</v>
+        <v>2.048317315457924</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.889737852200016</v>
+        <v>4.192759969074785</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.048317315457924</v>
+        <v>2.369782774719802e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.192759969074785</v>
+        <v>1888916064.272979</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.369782774719802e-17</v>
+        <v>6.293548174449707e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1888916064.272979</v>
+        <v>84.55394177301932</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.293548174449707e-08</v>
+        <v>0.0001857014680682644</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>84.55394177301932</v>
+        <v>9.930692065648904</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001857014680682644</v>
+        <v>1.261285877608245</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.930692065648904</v>
+        <v>0.01831362713734206</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.261285877608245</v>
+        <v>2.793222130976863</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01831362713734206</v>
+        <v>0.9587284235567105</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.793222130976863</v>
+        <v>1.326557471953771</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9587284235567105</v>
+        <v>26</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.326557471953771</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3819721018835476</v>
       </c>
     </row>
@@ -5282,72 +5192,66 @@
         <v>1.973872722695851e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3018965059966407</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.584530176843477</v>
+        <v>7.074078617837517e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.03047792216199788</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.074078617837517e-07</v>
+        <v>0.06465493858187227</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03047792216199788</v>
+        <v>0.00510780078618898</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06465493858187227</v>
+        <v>1.877516847240726</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00510780078618898</v>
+        <v>1.989539686415298</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.894395075334795</v>
+        <v>4.105912320744419</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.989539686415298</v>
+        <v>2.648752054122344e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.105912320744419</v>
+        <v>1721755492.717511</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.648752054122344e-17</v>
+        <v>6.927680045333857e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1721755492.717511</v>
+        <v>78.5207177511836</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.927680045333857e-08</v>
+        <v>0.0001894150486196965</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>78.5207177511836</v>
+        <v>9.321601656091993</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001894150486196965</v>
+        <v>1.416948858588982</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.321601656091993</v>
+        <v>0.01645870116669862</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.416948858588982</v>
+        <v>2.872352359757239</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01645870116669862</v>
+        <v>0.9594231940902488</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.872352359757239</v>
+        <v>1.345603068096924</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9594231940902488</v>
+        <v>26</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.345603068096924</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4328775189960222</v>
       </c>
     </row>
@@ -5362,72 +5266,66 @@
         <v>1.960179395220367e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3695623639570983</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.528085130482703</v>
+        <v>7.068204951431262e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02907842136173849</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.068204951431262e-07</v>
+        <v>0.06829885776019737</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02907842136173849</v>
+        <v>0.005508622703150182</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06829885776019737</v>
+        <v>1.881465698910114</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005508622703150182</v>
+        <v>1.954552409865781</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.883543944158207</v>
+        <v>4.196253493501984</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.954552409865781</v>
+        <v>2.5359297403758e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.196253493501984</v>
+        <v>1812902930.905147</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.5359297403758e-17</v>
+        <v>6.58785314557112e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1812902930.905147</v>
+        <v>83.34629889061122</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.58785314557112e-08</v>
+        <v>0.0001895836281874765</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>83.34629889061122</v>
+        <v>10.78015674877292</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001895836281874765</v>
+        <v>1.189050912797318</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.78015674877292</v>
+        <v>0.022031850801063</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.189050912797318</v>
+        <v>2.791498737156569</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.022031850801063</v>
+        <v>0.9583675879267917</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.791498737156569</v>
+        <v>1.352138824825668</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9583675879267917</v>
+        <v>26</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.352138824825668</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5300772505223414</v>
       </c>
     </row>
@@ -5442,72 +5340,66 @@
         <v>1.940070960440192e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4349402904798383</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.455581584624938</v>
+        <v>7.062713930718663e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02713263549291211</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.062713930718663e-07</v>
+        <v>0.07315620772346844</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02713263549291211</v>
+        <v>0.006086076661778905</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07315620772346844</v>
+        <v>1.885307255123557</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006086076661778905</v>
+        <v>2.149856386351762</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.886516091356536</v>
+        <v>4.25937659098537</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.149856386351762</v>
+        <v>2.461322768293614e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.25937659098537</v>
+        <v>1875255156.025178</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.461322768293614e-17</v>
+        <v>6.36151514371579e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1875255156.025178</v>
+        <v>86.55443097529054</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.36151514371579e-08</v>
+        <v>0.0002005744743679414</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>86.55443097529054</v>
+        <v>12.69818232128538</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002005744743679414</v>
+        <v>1.030959236105368</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.69818232128538</v>
+        <v>0.03234139730269452</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.030959236105368</v>
+        <v>2.628422965281277</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03234139730269452</v>
+        <v>0.9586400159268049</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.628422965281277</v>
+        <v>1.35111311316175</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9586400159268049</v>
+        <v>29</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.35111311316175</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.6352051108489287</v>
       </c>
     </row>
@@ -5522,72 +5414,66 @@
         <v>1.914757137370558e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4957810543287351</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.369184648643638</v>
+        <v>7.057667447301343e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02524954681496883</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.057667447301343e-07</v>
+        <v>0.07796819831127455</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02524954681496883</v>
+        <v>0.006714977387896254</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.07796819831127455</v>
+        <v>1.869192109979191</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.006714977387896254</v>
+        <v>2.080973794338441</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.863673717920195</v>
+        <v>5.152044659874661</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.080973794338441</v>
+        <v>2.716096935875772e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.152044659874661</v>
+        <v>1675387694.763596</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.716096935875772e-17</v>
+        <v>7.05996039529848e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1675387694.763596</v>
+        <v>76.23877479439649</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.05996039529848e-08</v>
+        <v>0.0002002988862501653</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>76.23877479439649</v>
+        <v>11.42959418770727</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002002988862501653</v>
+        <v>1.235380041801144</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.42959418770727</v>
+        <v>0.0261661698507192</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.235380041801144</v>
+        <v>2.91511673036691</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0261661698507192</v>
+        <v>0.9586812842732629</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.91511673036691</v>
+        <v>1.362534332517245</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9586812842732629</v>
+        <v>28</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.362534332517245</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.6309152738804871</v>
       </c>
     </row>
@@ -5602,72 +5488,66 @@
         <v>1.885030449883221e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5512184880784731</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.27187569318838</v>
+        <v>7.052963762567045e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02445050309510895</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.052963762567045e-07</v>
+        <v>0.08090614042750915</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02445050309510895</v>
+        <v>0.007142861091045066</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08090614042750915</v>
+        <v>1.869369226418818</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.007142861091045066</v>
+        <v>1.933519063813721</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.855875836757066</v>
+        <v>4.574573739933092</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.933519063813721</v>
+        <v>3.445111151727269e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.574573739933092</v>
+        <v>1336303931.914345</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.445111151727269e-17</v>
+        <v>8.855765651376124e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1336303931.914345</v>
+        <v>61.51963228210005</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.855765651376124e-08</v>
+        <v>0.0002235304292567731</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>61.51963228210005</v>
+        <v>10.38160782042214</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002235304292567731</v>
+        <v>1.500327627455755</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.38160782042214</v>
+        <v>0.02409161363720126</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.500327627455755</v>
+        <v>2.900489291017953</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02409161363720126</v>
+        <v>0.9561857875660648</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.900489291017953</v>
+        <v>1.485660894719141</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9561857875660648</v>
+        <v>28</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.485660894719141</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4811068548497778</v>
       </c>
     </row>
@@ -5682,72 +5562,66 @@
         <v>1.850735240718875e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6019826839066744</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.165540338659664</v>
+        <v>7.048381932555854e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.0247043188886942</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.048381932555854e-07</v>
+        <v>0.08265359478428062</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0247043188886942</v>
+        <v>0.007441291055336798</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08265359478428062</v>
+        <v>1.861460893148286</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.007441291055336798</v>
+        <v>1.959897670411478</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.843997424587357</v>
+        <v>4.841944039966605</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.959897670411478</v>
+        <v>3.075140562830856e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.841944039966605</v>
+        <v>1415842853.897502</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.075140562830856e-17</v>
+        <v>8.290129018401059e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1415842853.897502</v>
+        <v>61.64460558612904</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.290129018401059e-08</v>
+        <v>0.0001953144662525024</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>61.64460558612904</v>
+        <v>11.83355824193084</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001953144662525024</v>
+        <v>1.152424585530935</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.83355824193084</v>
+        <v>0.02735049031410047</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.152424585530935</v>
+        <v>2.860493859994261</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02735049031410047</v>
+        <v>0.9566649091187821</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.860493859994261</v>
+        <v>1.500003368076986</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9566649091187821</v>
+        <v>28</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.500003368076986</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4113470767293756</v>
       </c>
     </row>
@@ -5762,72 +5636,66 @@
         <v>1.811194923421287e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6477280300085395</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.052540772355817</v>
+        <v>7.043786270604925e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02555022277961868</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.043786270604925e-07</v>
+        <v>0.0841503440665111</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.02555022277961868</v>
+        <v>0.007733855379959551</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0841503440665111</v>
+        <v>1.858693865606488</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.007733855379959551</v>
+        <v>2.078865914530993</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.837472316402367</v>
+        <v>4.675784408363832</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.078865914530993</v>
+        <v>3.297581566190312e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.675784408363832</v>
+        <v>1311523629.922538</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.297581566190312e-17</v>
+        <v>8.94079565985527e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1311523629.922538</v>
+        <v>56.7215103104298</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.94079565985527e-08</v>
+        <v>0.000169869597677484</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>56.7215103104298</v>
+        <v>12.50742239352672</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000169869597677484</v>
+        <v>1.055158089773777</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.50742239352672</v>
+        <v>0.02657365497060481</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.055158089773777</v>
+        <v>2.929520808421143</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02657365497060481</v>
+        <v>0.9577052700718264</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.929520808421143</v>
+        <v>1.457232628126981</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9577052700718264</v>
+        <v>28</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.457232628126981</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3577687447111106</v>
       </c>
     </row>
@@ -5842,72 +5710,66 @@
         <v>1.766349933854078e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6885405849083702</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9350374356780482</v>
+        <v>7.039092423328458e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02701032311977496</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.039092423328458e-07</v>
+        <v>0.08570853290908496</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.02701032311977496</v>
+        <v>0.008075394365386025</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.08570853290908496</v>
+        <v>1.851055500800538</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.008075394365386025</v>
+        <v>2.01182373673412</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.830982873888499</v>
+        <v>4.479438285088824</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.01182373673412</v>
+        <v>3.593001417419476e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.479438285088824</v>
+        <v>1208397671.971869</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.593001417419476e-17</v>
+        <v>9.69602120721918e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1208397671.971869</v>
+        <v>52.46590256273188</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.69602120721918e-08</v>
+        <v>0.0001393356178995846</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>52.46590256273188</v>
+        <v>11.72726169935732</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001393356178995846</v>
+        <v>1.089205593205058</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.72726169935732</v>
+        <v>0.01916264179050415</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.089205593205058</v>
+        <v>3.197724478039939</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01916264179050415</v>
+        <v>0.9579254798625627</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.197724478039939</v>
+        <v>1.456956422874263</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9579254798625627</v>
+        <v>18</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.456956422874263</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3518041540361664</v>
       </c>
     </row>
@@ -5922,72 +5784,66 @@
         <v>1.715877398996004e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.7238890914057752</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.8161928706547799</v>
+        <v>7.034227404203659e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.02889346205528337</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.034227404203659e-07</v>
+        <v>0.08758344455016863</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02889346205528337</v>
+        <v>0.008505596809077698</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.08758344455016863</v>
+        <v>1.846939678442849</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.008505596809077698</v>
+        <v>1.967996722290805</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.830433259700356</v>
+        <v>4.465409053820513</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.967996722290805</v>
+        <v>3.615613559141694e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.465409053820513</v>
+        <v>1256056071.624008</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.615613559141694e-17</v>
+        <v>9.298469449788198e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1256056071.624008</v>
+        <v>57.04269829111742</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.298469449788198e-08</v>
+        <v>0.0001202968520429778</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>57.04269829111742</v>
+        <v>9.750586276896605</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001202968520429778</v>
+        <v>1.313130258856234</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.750586276896605</v>
+        <v>0.01143709482035328</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.313130258856234</v>
+        <v>3.567917055775472</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01143709482035328</v>
+        <v>0.9579345099034391</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.567917055775472</v>
+        <v>1.471307313516358</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9579345099034391</v>
+        <v>22</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.471307313516358</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3544173759491988</v>
       </c>
     </row>
@@ -6002,72 +5858,66 @@
         <v>1.659226614359355e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.7506783689929152</v>
+        <v>5.370389582320078e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7047240237381711</v>
+        <v>7.029181784689319e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.370389582320078e-08</v>
+        <v>-0.0308690349192753</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.029181784689319e-07</v>
+        <v>0.0899988864010333</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0308690349192753</v>
+        <v>0.009052725057605408</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.0899988864010333</v>
+        <v>1.846362987186633</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.009052725057605408</v>
+        <v>1.95347786972383</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.830575905221551</v>
+        <v>4.472866082762447</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.95347786972383</v>
+        <v>3.603567922382318e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.472866082762447</v>
+        <v>1300531479.072396</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.603567922382318e-17</v>
+        <v>9.037926097435789e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1300531479.072396</v>
+        <v>60.95010381161397</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.037926097435789e-08</v>
+        <v>0.0001451094831694002</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>60.95010381161397</v>
+        <v>9.299495025984227</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001451094831694002</v>
+        <v>1.708398591369638</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.299495025984227</v>
+        <v>0.01254915629308113</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.708398591369638</v>
+        <v>3.561529821412396</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01254915629308113</v>
+        <v>0.9588903328505076</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.561529821412396</v>
+        <v>1.49291853080248</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9588903328505076</v>
+        <v>42</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.49291853080248</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3377877455233957</v>
       </c>
     </row>
@@ -6444,7 +6294,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.328920160030996</v>
+        <v>1.342941067398596</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.859677935185392</v>
@@ -6533,7 +6383,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.33587528462832</v>
+        <v>1.350014761959354</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.867543296828081</v>
@@ -6622,7 +6472,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402617436472258</v>
+        <v>1.414263405794801</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.827052667149308</v>
@@ -6711,7 +6561,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.418437798406571</v>
+        <v>1.40612917258472</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.83826723731531</v>
@@ -6800,7 +6650,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.40461108330373</v>
+        <v>1.403988017201581</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.881853847191065</v>
@@ -6889,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.3992403712773</v>
+        <v>1.400337297613841</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.929858409066986</v>
@@ -6978,7 +6828,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.402683416133137</v>
+        <v>1.405858729034789</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.926300511314962</v>
@@ -7067,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381083052343572</v>
+        <v>1.392448164211254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.963337511385576</v>
@@ -7156,7 +7006,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.356745310817544</v>
+        <v>1.371348948691315</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.975483632173693</v>
@@ -7245,7 +7095,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.342859784128488</v>
+        <v>1.355763015304724</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.970382823490713</v>
@@ -7334,7 +7184,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34101237246874</v>
+        <v>1.352430259674616</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.990073387487653</v>
@@ -7423,7 +7273,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.353740581908003</v>
+        <v>1.3656669672391</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.011690198282666</v>
@@ -7512,7 +7362,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.366101922851191</v>
+        <v>1.372582899115504</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.806093301002699</v>
@@ -7601,7 +7451,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.416784702217642</v>
+        <v>1.420445450168</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.221577980570912</v>
@@ -7690,7 +7540,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.426205091724404</v>
+        <v>1.425764058601554</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.330309837753941</v>
@@ -7779,7 +7629,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.435749925492716</v>
+        <v>1.433028040091886</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.394693611466281</v>
@@ -7868,7 +7718,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.432212583949445</v>
+        <v>1.427489317072347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.329144178294597</v>
@@ -7957,7 +7807,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.435475019246222</v>
+        <v>1.43215908123493</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.323510075741078</v>
@@ -8046,7 +7896,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.44410115072287</v>
+        <v>1.448852503346002</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.326878293545577</v>
@@ -8135,7 +7985,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458405228030622</v>
+        <v>1.451765375200917</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.219047423653368</v>
@@ -8224,7 +8074,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.454915351163275</v>
+        <v>1.444545190791852</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.318602098380258</v>
@@ -8313,7 +8163,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478688026928253</v>
+        <v>1.455716949413365</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.173147691623844</v>
@@ -8402,7 +8252,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.531438232448324</v>
+        <v>1.487724650608494</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.238204471122339</v>
@@ -8491,7 +8341,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584391304761999</v>
+        <v>1.526475253760462</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.155940340087924</v>
@@ -8580,7 +8430,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.62203581037064</v>
+        <v>1.550784668686478</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.408252436465518</v>
@@ -8669,7 +8519,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626148463362791</v>
+        <v>1.55010980141425</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.181744478202832</v>
@@ -8758,7 +8608,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.638168610587352</v>
+        <v>1.560188463413086</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.25594256208243</v>
@@ -8847,7 +8697,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.699077420309528</v>
+        <v>1.597170478331813</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.591943462051967</v>
@@ -8936,7 +8786,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.706341038766966</v>
+        <v>1.60445104475781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.415545310412951</v>
@@ -9025,7 +8875,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.711388451657078</v>
+        <v>1.604852087277651</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.390164748971167</v>
@@ -9114,7 +8964,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.702707959911232</v>
+        <v>1.598807448573987</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.106997998294438</v>
@@ -9203,7 +9053,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.675021379402213</v>
+        <v>1.579721245134234</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.09866820125326</v>
@@ -9292,7 +9142,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664463591332167</v>
+        <v>1.571370922582208</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.319684524300668</v>
@@ -9381,7 +9231,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.654162089941453</v>
+        <v>1.565479753790719</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.058290802333794</v>
@@ -9470,7 +9320,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633121140344988</v>
+        <v>1.547479394405025</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.745017456429061</v>
@@ -9559,7 +9409,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623567204755522</v>
+        <v>1.539823583854717</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.277936296442964</v>
@@ -9648,7 +9498,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625115373577149</v>
+        <v>1.539042899482714</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.814468728982074</v>
@@ -9737,7 +9587,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618597451782853</v>
+        <v>1.533482223781979</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.193023872067631</v>
@@ -9826,7 +9676,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610015137893825</v>
+        <v>1.528970750498852</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.104729180220489</v>
@@ -9915,7 +9765,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592476430173728</v>
+        <v>1.513954174853248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.104878707359439</v>
@@ -10004,7 +9854,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583425238574016</v>
+        <v>1.51281527490024</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.997739584827429</v>
@@ -10093,7 +9943,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586778701678628</v>
+        <v>1.516357317839164</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.04664248813076</v>
@@ -10182,7 +10032,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576885752650133</v>
+        <v>1.506085816437577</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.224281723569819</v>
@@ -10271,7 +10121,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.587247807889039</v>
+        <v>1.516240360430274</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.008995272809462</v>
@@ -10360,7 +10210,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567092192131859</v>
+        <v>1.502799849113987</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.691278907865406</v>
@@ -10449,7 +10299,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565226956816074</v>
+        <v>1.501965983681811</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.767527198658887</v>
@@ -10538,7 +10388,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573637376721093</v>
+        <v>1.508223219952327</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.701698826692803</v>
@@ -10627,7 +10477,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.556155723333012</v>
+        <v>1.50115847332203</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.677473482329625</v>
@@ -10716,7 +10566,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558369391837998</v>
+        <v>1.503777822435869</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.726928359584943</v>
@@ -10805,7 +10655,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.57081047307296</v>
+        <v>1.524137978397439</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.728093554047583</v>
@@ -10894,7 +10744,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.57310202144427</v>
+        <v>1.528562601148881</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.714593126286035</v>
@@ -10983,7 +10833,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.570376613905463</v>
+        <v>1.527282147205946</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.720021094112318</v>
@@ -11072,7 +10922,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.568868691672041</v>
+        <v>1.530523032024805</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.636817313481939</v>
@@ -11161,7 +11011,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566579750103981</v>
+        <v>1.529747326027187</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.627660037289397</v>
@@ -11250,7 +11100,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582851878084612</v>
+        <v>1.543374406479768</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.64265792751002</v>
@@ -11339,7 +11189,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.587489724194118</v>
+        <v>1.54273312001503</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.77568286810974</v>
@@ -11428,7 +11278,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.580955024917575</v>
+        <v>1.531842699885007</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.773579874693798</v>
@@ -11517,7 +11367,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.576874811724344</v>
+        <v>1.529548399563602</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.730984969631556</v>
@@ -11606,7 +11456,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.564031944666189</v>
+        <v>1.511912371488179</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.69688055190305</v>
@@ -11695,7 +11545,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.568233805941835</v>
+        <v>1.517067689675602</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.623108282492932</v>
@@ -11784,7 +11634,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.563673189678078</v>
+        <v>1.515761444789456</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.779580897290744</v>
@@ -11873,7 +11723,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.577132537000732</v>
+        <v>1.522874798686389</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.801905244642697</v>
@@ -11962,7 +11812,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.587236340422512</v>
+        <v>1.526362190340043</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.009635443046657</v>
@@ -12051,7 +11901,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.593267518789841</v>
+        <v>1.533040965721716</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.806583055098632</v>
@@ -12140,7 +11990,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57988513837951</v>
+        <v>1.520408024817713</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.719070511013476</v>
@@ -12229,7 +12079,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.586234501424585</v>
+        <v>1.528306960443196</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.799501599015696</v>
@@ -12318,7 +12168,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.582452260012503</v>
+        <v>1.527312037609959</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.984212403760279</v>
@@ -12407,7 +12257,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.583598846120846</v>
+        <v>1.534621704547436</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.006768951944146</v>
@@ -12693,7 +12543,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.41088860939255</v>
+        <v>1.447006901208935</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.86810281255991</v>
@@ -12782,7 +12632,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.415934369715619</v>
+        <v>1.452756718077279</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.873210466811746</v>
@@ -12871,7 +12721,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466872541729465</v>
+        <v>1.502161048041712</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.864152626337496</v>
@@ -12960,7 +12810,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.478566571190917</v>
+        <v>1.498079656430411</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.873922518707364</v>
@@ -13049,7 +12899,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.472195206468247</v>
+        <v>1.5002379338464</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.867057301130383</v>
@@ -13138,7 +12988,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.484554542223397</v>
+        <v>1.514621430469924</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.910156583016235</v>
@@ -13227,7 +13077,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.483514605755207</v>
+        <v>1.51816472675472</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.901139389627316</v>
@@ -13316,7 +13166,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474227814252682</v>
+        <v>1.50911135607363</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.922640711086042</v>
@@ -13405,7 +13255,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.450460623600825</v>
+        <v>1.486449540405105</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.90081518536942</v>
@@ -13494,7 +13344,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.437306880821071</v>
+        <v>1.471666348853047</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.894802860853858</v>
@@ -13583,7 +13433,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438768719519786</v>
+        <v>1.475809363188371</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.910630614076278</v>
@@ -13672,7 +13522,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455597347668191</v>
+        <v>1.492193567926111</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.936287865076596</v>
@@ -13761,7 +13611,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.510557306063667</v>
+        <v>1.545867884834192</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.708101762163972</v>
@@ -13850,7 +13700,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62706937458798</v>
+        <v>1.653950311574313</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.442425861647957</v>
@@ -13939,7 +13789,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653006816222934</v>
+        <v>1.677071156945037</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.843503470862156</v>
@@ -14028,7 +13878,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.663938803497165</v>
+        <v>1.687926851479341</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.839835986341581</v>
@@ -14117,7 +13967,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.672638830415118</v>
+        <v>1.692728175083689</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.76888342549726</v>
@@ -14206,7 +14056,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.672166768532852</v>
+        <v>1.695069136584825</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.840904249216667</v>
@@ -14295,7 +14145,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.692109552459348</v>
+        <v>1.725750963477023</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.937762713253784</v>
@@ -14384,7 +14234,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713359279247637</v>
+        <v>1.73627195028957</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.794259085756521</v>
@@ -14473,7 +14323,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.687306205171121</v>
+        <v>1.707746937335346</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.701092950727285</v>
@@ -14562,7 +14412,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.711803519510868</v>
+        <v>1.72320806186249</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.650390233726315</v>
@@ -14651,7 +14501,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.744435456348056</v>
+        <v>1.747702937090254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.661888579490543</v>
@@ -14740,7 +14590,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76610748181029</v>
+        <v>1.762260357532105</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.47450939715639</v>
@@ -14829,7 +14679,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.788563084768762</v>
+        <v>1.779363734669249</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.734251318789082</v>
@@ -14918,7 +14768,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.785561851294631</v>
+        <v>1.77364544476056</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.111073885689442</v>
@@ -15007,7 +14857,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.802267072994483</v>
+        <v>1.786865965798678</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.000510379931081</v>
@@ -15096,7 +14946,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.811583025737757</v>
+        <v>1.791500938471398</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.616094650684849</v>
@@ -15185,7 +15035,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.823054249361464</v>
+        <v>1.801978374916968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.825885770608912</v>
@@ -15274,7 +15124,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.829593427998629</v>
+        <v>1.807687764457993</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.267049544507777</v>
@@ -15363,7 +15213,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.832766936566694</v>
+        <v>1.805212197256002</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.498406463205094</v>
@@ -15452,7 +15302,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.81107757452163</v>
+        <v>1.781517616817613</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.662877284685059</v>
@@ -15541,7 +15391,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.80949627250485</v>
+        <v>1.770782915822583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.555344315335033</v>
@@ -15630,7 +15480,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.798026255049036</v>
+        <v>1.760095366595503</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.70088387793861</v>
@@ -15719,7 +15569,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.782332270508055</v>
+        <v>1.745932822156866</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.642568606094271</v>
@@ -15808,7 +15658,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786508866952981</v>
+        <v>1.748108403506551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.520193324143539</v>
@@ -15897,7 +15747,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.785327323251434</v>
+        <v>1.74338491060456</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.096374036891596</v>
@@ -15986,7 +15836,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.777440067711286</v>
+        <v>1.732340349542829</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.600644040684963</v>
@@ -16075,7 +15925,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.771773986465779</v>
+        <v>1.725350120184744</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.59950596659998</v>
@@ -16164,7 +16014,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.740089969088852</v>
+        <v>1.700567308401007</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.106382464036865</v>
@@ -16253,7 +16103,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.731130400501195</v>
+        <v>1.695369264234887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.092025683537387</v>
@@ -16342,7 +16192,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.727450930380321</v>
+        <v>1.696729532045787</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.087364336515413</v>
@@ -16431,7 +16281,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.723334180732547</v>
+        <v>1.693355620450916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.898628973783925</v>
@@ -16520,7 +16370,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.710286302026754</v>
+        <v>1.683631771185754</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.947408884359854</v>
@@ -16609,7 +16459,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.697961968295226</v>
+        <v>1.675338923209143</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.935387412206353</v>
@@ -16698,7 +16548,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.680511413631751</v>
+        <v>1.656136469965253</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.073937365958614</v>
@@ -16787,7 +16637,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.691950409891204</v>
+        <v>1.675401778850961</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.176369640010646</v>
@@ -16876,7 +16726,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.681389330763732</v>
+        <v>1.677254993488001</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.320777838237529</v>
@@ -16965,7 +16815,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.695162203247747</v>
+        <v>1.690747490149719</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.18392979780653</v>
@@ -17054,7 +16904,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.708751490084708</v>
+        <v>1.704547774408598</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.451329773014167</v>
@@ -17143,7 +16993,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.714908828913502</v>
+        <v>1.71317594447814</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.251414427518784</v>
@@ -17232,7 +17082,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.712785764677692</v>
+        <v>1.711016319446085</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.38996588439904</v>
@@ -17321,7 +17171,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.705839476777436</v>
+        <v>1.705053718738637</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.161446687244267</v>
@@ -17410,7 +17260,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.703961924730981</v>
+        <v>1.711815068408059</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.995303422869472</v>
@@ -17499,7 +17349,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.725790024224655</v>
+        <v>1.727860392564527</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.516959068285376</v>
@@ -17588,7 +17438,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.719662815736843</v>
+        <v>1.718984660742554</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.208860440469</v>
@@ -17677,7 +17527,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.707454392846256</v>
+        <v>1.708183865522648</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.518256533942148</v>
@@ -17766,7 +17616,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.70688926209489</v>
+        <v>1.7104378283557</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.398645826589273</v>
@@ -17855,7 +17705,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.715982629401525</v>
+        <v>1.709385015678631</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.28924543449638</v>
@@ -17944,7 +17794,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.717048336768723</v>
+        <v>1.708981684345033</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.846591030362555</v>
@@ -18033,7 +17883,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.721031336113178</v>
+        <v>1.715923596188617</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.381126495720958</v>
@@ -18122,7 +17972,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.727000495673851</v>
+        <v>1.717901430223071</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.423848047895163</v>
@@ -18211,7 +18061,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.72244445272364</v>
+        <v>1.713296954983008</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.245172274632143</v>
@@ -18300,7 +18150,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.723391967104246</v>
+        <v>1.714241157137937</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.192198487682483</v>
@@ -18389,7 +18239,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.721456870213673</v>
+        <v>1.717773975103443</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.949934878595472</v>
@@ -18478,7 +18328,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.723819457848905</v>
+        <v>1.71871425432179</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.351664656956092</v>
@@ -18567,7 +18417,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.730544412416165</v>
+        <v>1.72996052440444</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.254674810240455</v>
@@ -18656,7 +18506,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.749120688678699</v>
+        <v>1.749573933793581</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.110470992363354</v>
@@ -18942,7 +18792,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.612318054304933</v>
+        <v>1.620213778499827</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.219466100228336</v>
@@ -19031,7 +18881,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.609104446587527</v>
+        <v>1.611065364753823</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.297090068956903</v>
@@ -19120,7 +18970,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.678256794571595</v>
+        <v>1.661621312359454</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.737694061989011</v>
@@ -19209,7 +19059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615070268072926</v>
+        <v>1.606668643919543</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.019638599289432</v>
@@ -19298,7 +19148,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411186353926459</v>
+        <v>1.422131975051195</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.690800070581039</v>
@@ -19387,7 +19237,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.409456294735649</v>
+        <v>1.422787926529104</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.69964350125927</v>
@@ -19476,7 +19326,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.415918637801893</v>
+        <v>1.435102615986944</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.706302457526235</v>
@@ -19565,7 +19415,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.403283170813561</v>
+        <v>1.428535082224364</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.709494090025931</v>
@@ -19654,7 +19504,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.376723192562738</v>
+        <v>1.402455746860879</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.705720630141288</v>
@@ -19743,7 +19593,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.363834154916328</v>
+        <v>1.383850688537942</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.699726269449309</v>
@@ -19832,7 +19682,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.369813220191435</v>
+        <v>1.392771848928078</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.7094360376656</v>
@@ -19921,7 +19771,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.382194286263543</v>
+        <v>1.407161939327288</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.725433261105515</v>
@@ -20010,7 +19860,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.38011035123077</v>
+        <v>1.406268717353049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.728400084519903</v>
@@ -20099,7 +19949,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.397867209740849</v>
+        <v>1.429530820568252</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.740577062636462</v>
@@ -20188,7 +20038,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.409919825209757</v>
+        <v>1.442063503253294</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.748232329949766</v>
@@ -20277,7 +20127,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.418383097796404</v>
+        <v>1.45133387152712</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.756452591351664</v>
@@ -20366,7 +20216,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.423217865097504</v>
+        <v>1.457261873038393</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.753896855472629</v>
@@ -20455,7 +20305,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.428257582567041</v>
+        <v>1.463053134004917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.733510895498875</v>
@@ -20544,7 +20394,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.459562924781621</v>
+        <v>1.490188420412263</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.627940633392136</v>
@@ -20633,7 +20483,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.660847613736983</v>
+        <v>1.689353612601045</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.431645082292542</v>
@@ -20722,7 +20572,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.653814664886645</v>
+        <v>1.679433668876761</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.673214407151885</v>
@@ -20811,7 +20661,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660528964286746</v>
+        <v>1.679917815144139</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.400104639175789</v>
@@ -20900,7 +20750,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.683811707352202</v>
+        <v>1.694339609867815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.50622870054024</v>
@@ -20989,7 +20839,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.736288609917891</v>
+        <v>1.731697302092691</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.341343908039387</v>
@@ -21078,7 +20928,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.73628770263753</v>
+        <v>1.727530637742255</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.449539003939466</v>
@@ -21167,7 +21017,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732768600640017</v>
+        <v>1.723694215304566</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.39680929466899</v>
@@ -21256,7 +21106,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.762859770636863</v>
+        <v>1.740698057505581</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.197063756919299</v>
@@ -21345,7 +21195,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.789073978233725</v>
+        <v>1.763492530142826</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.10851322903258</v>
@@ -21434,7 +21284,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.785225909369485</v>
+        <v>1.757855331077754</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.029209946864989</v>
@@ -21523,7 +21373,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.791407944915191</v>
+        <v>1.759806658888881</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.330292299981423</v>
@@ -21612,7 +21462,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779076154322957</v>
+        <v>1.743849299206921</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.318896620571545</v>
@@ -21701,7 +21551,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.754332185817187</v>
+        <v>1.72069561081088</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.099196813568362</v>
@@ -21790,7 +21640,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.743145603920039</v>
+        <v>1.705611320203106</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.353612469157945</v>
@@ -21879,7 +21729,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.732370472586526</v>
+        <v>1.69749825464083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.494238080638352</v>
@@ -21968,7 +21818,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723879822250491</v>
+        <v>1.688581399300022</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.143544721888153</v>
@@ -22057,7 +21907,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.729512699833106</v>
+        <v>1.695602548794352</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.048855506753417</v>
@@ -22146,7 +21996,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.732518013486076</v>
+        <v>1.688657910513707</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.325473687479621</v>
@@ -22235,7 +22085,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.723313256634269</v>
+        <v>1.682581923929282</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.565716980082519</v>
@@ -22324,7 +22174,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.72466242551761</v>
+        <v>1.686642102611442</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.637637796406802</v>
@@ -22413,7 +22263,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.706215948788504</v>
+        <v>1.673419985282888</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.302391354646049</v>
@@ -22502,7 +22352,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701775216232441</v>
+        <v>1.671383099380313</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.253651813348723</v>
@@ -22591,7 +22441,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.703286359719391</v>
+        <v>1.674089420811877</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.330061959892033</v>
@@ -22680,7 +22530,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.712051220031787</v>
+        <v>1.680150795140929</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.96561223965233</v>
@@ -22769,7 +22619,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704985873716084</v>
+        <v>1.669850738187584</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.127323998112983</v>
@@ -22858,7 +22708,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.68631737743949</v>
+        <v>1.660164115239757</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.070188859009586</v>
@@ -22947,7 +22797,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.679702626689643</v>
+        <v>1.654454066269606</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.889212782783242</v>
@@ -23036,7 +22886,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.689838565446745</v>
+        <v>1.672967196807567</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.841448292738705</v>
@@ -23125,7 +22975,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691231570873747</v>
+        <v>1.682920421550762</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.931062192729819</v>
@@ -23214,7 +23064,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.698086649716263</v>
+        <v>1.691071633612279</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.266240479464741</v>
@@ -23303,7 +23153,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.699345031921512</v>
+        <v>1.686175653745545</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.233404953009956</v>
@@ -23392,7 +23242,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706051074717987</v>
+        <v>1.695324396780786</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.196631962784361</v>
@@ -23481,7 +23331,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.710065531023235</v>
+        <v>1.700017962366131</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.326445001811839</v>
@@ -23570,7 +23420,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711222069019865</v>
+        <v>1.699729996297649</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.358868350531048</v>
@@ -23659,7 +23509,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.706714633119488</v>
+        <v>1.694849247834657</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.254654326966661</v>
@@ -23748,7 +23598,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.719457191883429</v>
+        <v>1.707335781221312</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.336244561753587</v>
@@ -23837,7 +23687,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.717362638456294</v>
+        <v>1.704793771276801</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.11373562600935</v>
@@ -23926,7 +23776,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.714788740420683</v>
+        <v>1.703279950251444</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.161882509128563</v>
@@ -24015,7 +23865,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.719584086532867</v>
+        <v>1.710481856369978</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.02220384847254</v>
@@ -24104,7 +23954,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.718744506819217</v>
+        <v>1.709637125094999</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.268843655723235</v>
@@ -24193,7 +24043,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.727288306757687</v>
+        <v>1.711431530982462</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.779640978788153</v>
@@ -24282,7 +24132,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.742964686853185</v>
+        <v>1.731335529934357</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.273194865651581</v>
@@ -24371,7 +24221,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.751666331821626</v>
+        <v>1.734296049611746</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.994601082398196</v>
@@ -24460,7 +24310,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.750390139870503</v>
+        <v>1.733210594831433</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.180875096041356</v>
@@ -24549,7 +24399,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.756111544591554</v>
+        <v>1.74139717151213</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.091760290995384</v>
@@ -24638,7 +24488,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.763245546449014</v>
+        <v>1.755324277698089</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.498338166445283</v>
@@ -24727,7 +24577,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.762776795129275</v>
+        <v>1.752338212265432</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.512866574171549</v>
@@ -24816,7 +24666,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.764168471735652</v>
+        <v>1.758538115387881</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.606207678200885</v>
@@ -24905,7 +24755,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.779487516577524</v>
+        <v>1.772687345059952</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.709092701225069</v>
@@ -25191,7 +25041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.576593261629865</v>
+        <v>1.561455004925791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.030198823426364</v>
@@ -25280,7 +25130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.585729471658694</v>
+        <v>1.566119306689035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.085017647020587</v>
@@ -25369,7 +25219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.678335261426589</v>
+        <v>1.636240905163197</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.580587703654148</v>
@@ -25458,7 +25308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.700507201463801</v>
+        <v>1.656782668839398</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.323955949043723</v>
@@ -25547,7 +25397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.741402324476315</v>
+        <v>1.729545695299912</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.491755207704984</v>
@@ -25636,7 +25486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.755238718335023</v>
+        <v>1.749141464830048</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.541583126197899</v>
@@ -25725,7 +25575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.746003495926505</v>
+        <v>1.745162308123369</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.604024673186693</v>
@@ -25814,7 +25664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.744790487068713</v>
+        <v>1.75118386311634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.614947078505092</v>
@@ -25903,7 +25753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725092727786699</v>
+        <v>1.73489488541719</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.602333663581753</v>
@@ -25992,7 +25842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.720277473562909</v>
+        <v>1.726274216617673</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.560203587053746</v>
@@ -26081,7 +25931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.71818074309141</v>
+        <v>1.725497945524423</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.644851288890941</v>
@@ -26170,7 +26020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.728516835906928</v>
+        <v>1.738279589270169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.653333252770416</v>
@@ -26259,7 +26109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.720110681670615</v>
+        <v>1.737677151683058</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.46383754985367</v>
@@ -26348,7 +26198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.737758540029261</v>
+        <v>1.757243714379409</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.703883496692357</v>
@@ -26437,7 +26287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.737034019373811</v>
+        <v>1.754865338017211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.719043493870752</v>
@@ -26526,7 +26376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.742422210941995</v>
+        <v>1.757732572744599</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.687774694364217</v>
@@ -26615,7 +26465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.744195373301457</v>
+        <v>1.758698292968238</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.726791513485212</v>
@@ -26704,7 +26554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.74162841154355</v>
+        <v>1.751503006096637</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.673565601999107</v>
@@ -26793,7 +26643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.731908817944483</v>
+        <v>1.746886012372617</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.515234882488008</v>
@@ -26882,7 +26732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.697662427398165</v>
+        <v>1.697350114414385</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.337926084709813</v>
@@ -26971,7 +26821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665954073972872</v>
+        <v>1.661352185951672</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.284658689604419</v>
@@ -27060,7 +26910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.676512083530625</v>
+        <v>1.664901388337363</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.242518808931758</v>
@@ -27149,7 +26999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673618130305654</v>
+        <v>1.655840395452943</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.12526189319326</v>
@@ -27238,7 +27088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.694643891550347</v>
+        <v>1.668113008420936</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.098213198675419</v>
@@ -27327,7 +27177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69437229588843</v>
+        <v>1.667161121789027</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.195392528908447</v>
@@ -27416,7 +27266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.692935749418547</v>
+        <v>1.666594390001924</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.189230671778277</v>
@@ -27505,7 +27355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.71291508544575</v>
+        <v>1.664058865921309</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.038635201091183</v>
@@ -27594,7 +27444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.709979052405254</v>
+        <v>1.651470571978605</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.453710810974695</v>
@@ -27683,7 +27533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708635364188385</v>
+        <v>1.6471201811207</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.795707347390588</v>
@@ -27772,7 +27622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.714214718349512</v>
+        <v>1.643952876261756</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.824314801699472</v>
@@ -27861,7 +27711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.701189906419559</v>
+        <v>1.630702897420164</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.337332913226891</v>
@@ -27950,7 +27800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.686875017896875</v>
+        <v>1.619175259686482</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.6589043581662</v>
@@ -28039,7 +27889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676163165689012</v>
+        <v>1.609410256125825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.06159444761006</v>
@@ -28128,7 +27978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667527379961688</v>
+        <v>1.592440501130379</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.258365653639588</v>
@@ -28217,7 +28067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.660508391047074</v>
+        <v>1.580527694320422</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.298051129738007</v>
@@ -28306,7 +28156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.656597213827293</v>
+        <v>1.570992989972799</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.45773884064228</v>
@@ -28395,7 +28245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661534901800872</v>
+        <v>1.574318847516645</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.166132038026766</v>
@@ -28484,7 +28334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.656584608448477</v>
+        <v>1.57100952405375</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.238170485568268</v>
@@ -28573,7 +28423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647202047180085</v>
+        <v>1.56343878913185</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.238856527890931</v>
@@ -28662,7 +28512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.641171744563112</v>
+        <v>1.560701651776438</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.501121140030524</v>
@@ -28751,7 +28601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.641694351011168</v>
+        <v>1.563971143885748</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.106779401390531</v>
@@ -28840,7 +28690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639627808523483</v>
+        <v>1.563092434820829</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.088788947582549</v>
@@ -28929,7 +28779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646820923871856</v>
+        <v>1.566919745134545</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.179377602144205</v>
@@ -29018,7 +28868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.637129177253836</v>
+        <v>1.558500401419985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.307032225110106</v>
@@ -29107,7 +28957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.634896699964598</v>
+        <v>1.565107591602332</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.452058849845328</v>
@@ -29196,7 +29046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633033873399346</v>
+        <v>1.57048984124152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.313708736111134</v>
@@ -29285,7 +29135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632269774887736</v>
+        <v>1.565360782031628</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.083951581387119</v>
@@ -29374,7 +29224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63867243626182</v>
+        <v>1.578366190708087</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.214589624487516</v>
@@ -29463,7 +29313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.641802606105931</v>
+        <v>1.584384284139762</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.09923380779262</v>
@@ -29552,7 +29402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.644002129876513</v>
+        <v>1.584932249541428</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.432896472829185</v>
@@ -29641,7 +29491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637532622795198</v>
+        <v>1.579292648925202</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.594028262750242</v>
@@ -29730,7 +29580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634646625836303</v>
+        <v>1.570670115639487</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.539580379451448</v>
@@ -29819,7 +29669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.642730110018518</v>
+        <v>1.580031778602119</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.489188130700012</v>
@@ -29908,7 +29758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.64811545252542</v>
+        <v>1.579049385349564</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.503899290617475</v>
@@ -29997,7 +29847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650279499854339</v>
+        <v>1.57780127087695</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.579242313791676</v>
@@ -30086,7 +29936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65092381552008</v>
+        <v>1.570140028807695</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.166362205150827</v>
@@ -30175,7 +30025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645915097740042</v>
+        <v>1.559562078557998</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.246474439345266</v>
@@ -30264,7 +30114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.643465006661571</v>
+        <v>1.560414887709472</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.609229508697501</v>
@@ -30353,7 +30203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.647411020414233</v>
+        <v>1.558052011330682</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.514346603743113</v>
@@ -30442,7 +30292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.650273266225934</v>
+        <v>1.552911077816633</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.840464630463675</v>
@@ -30531,7 +30381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647937900778474</v>
+        <v>1.55233075015384</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.534561204385714</v>
@@ -30620,7 +30470,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653352982992866</v>
+        <v>1.554896272647608</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.844301338779206</v>
@@ -30709,7 +30559,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.654574086766281</v>
+        <v>1.553860388749606</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.469581117603484</v>
@@ -30798,7 +30648,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.654727842119731</v>
+        <v>1.559619988513178</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.400989461270671</v>
@@ -30887,7 +30737,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.656614830847525</v>
+        <v>1.567625411750551</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.685453200285628</v>
@@ -30976,7 +30826,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.656159035644746</v>
+        <v>1.569487142127486</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.385367955703937</v>
@@ -31065,7 +30915,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.653522607280806</v>
+        <v>1.571522601495888</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.522543330065603</v>
@@ -31154,7 +31004,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.650252813781134</v>
+        <v>1.566628701743529</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.669839402556686</v>
@@ -31440,7 +31290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.227005356017779</v>
+        <v>1.209359093663984</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.500966917369203</v>
@@ -31529,7 +31379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.242419036658012</v>
+        <v>1.222672984695741</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.510771285161422</v>
@@ -31618,7 +31468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.437593858334418</v>
+        <v>1.398607630748291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.739720602478481</v>
@@ -31707,7 +31557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465948814557416</v>
+        <v>1.41257530260972</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.851524976216415</v>
@@ -31796,7 +31646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474879032766696</v>
+        <v>1.438254090566149</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.932280342759874</v>
@@ -31885,7 +31735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.486815005509824</v>
+        <v>1.452753502522633</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.964725063351294</v>
@@ -31974,7 +31824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462344914103588</v>
+        <v>1.432495669879766</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.960052520754345</v>
@@ -32063,7 +31913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.438870700029327</v>
+        <v>1.416574212668511</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.986925887220634</v>
@@ -32152,7 +32002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433234297538996</v>
+        <v>1.410478740820629</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.992013768318839</v>
@@ -32241,7 +32091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431466544157439</v>
+        <v>1.406508364380302</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.006906101040915</v>
@@ -32330,7 +32180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.429871094084272</v>
+        <v>1.405479156122457</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.004990611892941</v>
@@ -32419,7 +32269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.437215508886423</v>
+        <v>1.415775087581066</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.028142049790972</v>
@@ -32508,7 +32358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.407430389358789</v>
+        <v>1.38771906294235</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.918460511043202</v>
@@ -32597,7 +32447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.426009952545536</v>
+        <v>1.42123945040187</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.097585387832811</v>
@@ -32686,7 +32536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.423530796862016</v>
+        <v>1.416971585771626</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.121059181732774</v>
@@ -32775,7 +32625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.422610517889711</v>
+        <v>1.418643076328415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.131036875496236</v>
@@ -32864,7 +32714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.422170204870065</v>
+        <v>1.414525336363332</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.168030170056606</v>
@@ -32953,7 +32803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423878887696938</v>
+        <v>1.419322956388913</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.15875988924229</v>
@@ -33042,7 +32892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425039236404158</v>
+        <v>1.426874936154086</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.986977709906413</v>
@@ -33131,7 +32981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.401744147256237</v>
+        <v>1.393924567959884</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.015474514533285</v>
@@ -33220,7 +33070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.384862551178841</v>
+        <v>1.373294391101261</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.931974441160957</v>
@@ -33309,7 +33159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.413592944207506</v>
+        <v>1.396930244567288</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.963535751371493</v>
@@ -33398,7 +33248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451372466154172</v>
+        <v>1.427072450170868</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.887751579460381</v>
@@ -33487,7 +33337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465621969370553</v>
+        <v>1.441549763482358</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.828090703068509</v>
@@ -33576,7 +33426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.469393480484919</v>
+        <v>1.445089474124375</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.897700507711665</v>
@@ -33665,7 +33515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470556483674701</v>
+        <v>1.444593302719259</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.892803039275256</v>
@@ -33754,7 +33604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528739753297285</v>
+        <v>1.487165569536153</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.949896394036824</v>
@@ -33843,7 +33693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626518736211803</v>
+        <v>1.565399793754733</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.173463826254166</v>
@@ -33932,7 +33782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.649966443006666</v>
+        <v>1.580645270042922</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.774111997651765</v>
@@ -34021,7 +33871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.673700029530333</v>
+        <v>1.599877889126539</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.446153769852017</v>
@@ -34110,7 +33960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.676932084663801</v>
+        <v>1.601977816681341</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.456335857670058</v>
@@ -34199,7 +34049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643998876054825</v>
+        <v>1.577528831637194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.719219938724616</v>
@@ -34288,7 +34138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641569277428481</v>
+        <v>1.571603240203306</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.924479796438038</v>
@@ -34377,7 +34227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628779546166188</v>
+        <v>1.554878700757289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.978254513588984</v>
@@ -34466,7 +34316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.610899008692118</v>
+        <v>1.539060744732721</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.861322129345944</v>
@@ -34555,7 +34405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59348307253601</v>
+        <v>1.522174758762889</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.731334687733387</v>
@@ -34644,7 +34494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595972252312201</v>
+        <v>1.523381878090671</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.615618410992051</v>
@@ -34733,7 +34583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.588984946287271</v>
+        <v>1.517178207254188</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.740396407968785</v>
@@ -34822,7 +34672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.569926711464168</v>
+        <v>1.501631572334943</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.033826697786037</v>
@@ -34911,7 +34761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561516793902185</v>
+        <v>1.492189599544856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.834194711272439</v>
@@ -35000,7 +34850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.557484014441441</v>
+        <v>1.490300349672704</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.773982666508845</v>
@@ -35089,7 +34939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549854958605885</v>
+        <v>1.478687442595511</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.975136049119982</v>
@@ -35178,7 +35028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551993217714478</v>
+        <v>1.477884438073748</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.060366186016224</v>
@@ -35267,7 +35117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.548863454312054</v>
+        <v>1.477172533209731</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.892447968162314</v>
@@ -35356,7 +35206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.498787173304562</v>
+        <v>1.43764286194601</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.440852782412953</v>
@@ -35445,7 +35295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.472165065761982</v>
+        <v>1.421521408191718</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.345977766532276</v>
@@ -35534,7 +35384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.472464296863778</v>
+        <v>1.423123004075725</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.259409974211867</v>
@@ -35623,7 +35473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.460457343106909</v>
+        <v>1.416630344748922</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.283234414426035</v>
@@ -35712,7 +35562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.458879265693942</v>
+        <v>1.420279423155865</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.32623055606883</v>
@@ -35801,7 +35651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.458661989372351</v>
+        <v>1.421807496464899</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.235584646021878</v>
@@ -35890,7 +35740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463109092599289</v>
+        <v>1.426389344446573</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.281626818178644</v>
@@ -35979,7 +35829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.465816714904006</v>
+        <v>1.430582278559745</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.374175569985486</v>
@@ -36068,7 +35918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.465556363035655</v>
+        <v>1.431845440790256</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.40887794437463</v>
@@ -36157,7 +36007,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.479828072364694</v>
+        <v>1.445308148638748</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.425787654928912</v>
@@ -36246,7 +36096,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.490328155834308</v>
+        <v>1.457184939949119</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.235286815985357</v>
@@ -36335,7 +36185,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.489921050062609</v>
+        <v>1.456142344836874</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.410822410424283</v>
@@ -36424,7 +36274,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.492074262396668</v>
+        <v>1.450483359794112</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.38932675387164</v>
@@ -36513,7 +36363,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.494085995139566</v>
+        <v>1.453041771683973</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.328255638118783</v>
@@ -36602,7 +36452,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.486082092255105</v>
+        <v>1.442298403603955</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.479915737752157</v>
@@ -36691,7 +36541,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.523741951588487</v>
+        <v>1.471207207063142</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.330628827086696</v>
@@ -36780,7 +36630,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.539859235559163</v>
+        <v>1.484056251622435</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.721842667536039</v>
@@ -36869,7 +36719,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.560370094222981</v>
+        <v>1.497301703546937</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.943270575285887</v>
@@ -36958,7 +36808,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.572102915956142</v>
+        <v>1.505299266104072</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.679061023903119</v>
@@ -37047,7 +36897,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.58389607067695</v>
+        <v>1.516994904685201</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.942490742517879</v>
@@ -37136,7 +36986,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57781135645836</v>
+        <v>1.516299287683058</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.94577065918497</v>
@@ -37225,7 +37075,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.581737104923408</v>
+        <v>1.522866315269833</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.940758274588963</v>
@@ -37314,7 +37164,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.571922906215486</v>
+        <v>1.509487919309294</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.953065267638973</v>
@@ -37403,7 +37253,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.569313949990668</v>
+        <v>1.51078752728807</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.864829790527407</v>
@@ -37689,7 +37539,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398777734464386</v>
+        <v>1.422937371408288</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.794658784613135</v>
@@ -37778,7 +37628,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.39551244148102</v>
+        <v>1.419043141672599</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.7779093261593</v>
@@ -37867,7 +37717,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426787942045658</v>
+        <v>1.447813928248726</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.778949161379573</v>
@@ -37956,7 +37806,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.433638073440544</v>
+        <v>1.447080592291203</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.778744350909356</v>
@@ -38045,7 +37895,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.43357286961679</v>
+        <v>1.45051458840965</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.802470517505826</v>
@@ -38134,7 +37984,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.432978743123375</v>
+        <v>1.451809826787223</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.806454545198279</v>
@@ -38223,7 +38073,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428581975078759</v>
+        <v>1.445234682884738</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.820694228388164</v>
@@ -38312,7 +38162,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.41696360439199</v>
+        <v>1.433816449924104</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.806322084006469</v>
@@ -38401,7 +38251,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.395406293289895</v>
+        <v>1.411722170497703</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.805033877924563</v>
@@ -38490,7 +38340,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.379411062987535</v>
+        <v>1.390225238227174</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.797907028717744</v>
@@ -38579,7 +38429,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.387858599782751</v>
+        <v>1.405758062057364</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.787551554727744</v>
@@ -38668,7 +38518,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.410822062684856</v>
+        <v>1.431385856611397</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.819090469259278</v>
@@ -38757,7 +38607,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458953846419981</v>
+        <v>1.471998503312564</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.561594031649395</v>
@@ -38846,7 +38696,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.557684336357078</v>
+        <v>1.573692360524248</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.522392892827644</v>
@@ -38935,7 +38785,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.57853857561536</v>
+        <v>1.594716040513279</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.607349927078284</v>
@@ -39024,7 +38874,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58840512207999</v>
+        <v>1.60574972114903</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.50432448282158</v>
@@ -39113,7 +38963,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60343747298955</v>
+        <v>1.62012444937506</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.740241556414655</v>
@@ -39202,7 +39052,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.605940983441013</v>
+        <v>1.625746163442594</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.728869090370902</v>
@@ -39291,7 +39141,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611322201783876</v>
+        <v>1.640691213257612</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.631863482044123</v>
@@ -39380,7 +39230,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.627518697899403</v>
+        <v>1.650905190842153</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.540362430750681</v>
@@ -39469,7 +39319,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.609920619276578</v>
+        <v>1.63182105694651</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.672499043536091</v>
@@ -39558,7 +39408,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.636081868529132</v>
+        <v>1.652444724763095</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.592340338187694</v>
@@ -39647,7 +39497,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.656508767873858</v>
+        <v>1.675112690807494</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.726765708601535</v>
@@ -39736,7 +39586,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.698665389517065</v>
+        <v>1.707862213560517</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.424624903734137</v>
@@ -39825,7 +39675,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.703572766314212</v>
+        <v>1.719546700188352</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.576861149002061</v>
@@ -39914,7 +39764,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.703059805468802</v>
+        <v>1.720888995778281</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.691644574276522</v>
@@ -40003,7 +39853,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.710926793645626</v>
+        <v>1.726213856440839</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.486790291311267</v>
@@ -40092,7 +39942,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.750739018166493</v>
+        <v>1.767916902390485</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.150720076083715</v>
@@ -40181,7 +40031,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.772138634072464</v>
+        <v>1.785625693869635</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.618064241893097</v>
@@ -40270,7 +40120,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775957589831381</v>
+        <v>1.782362886505677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.861917753635922</v>
@@ -40359,7 +40209,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.766259279595227</v>
+        <v>1.772058918458985</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.047829896048931</v>
@@ -40448,7 +40298,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749286232302053</v>
+        <v>1.750680410934448</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.874309506315885</v>
@@ -40537,7 +40387,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.740475795199372</v>
+        <v>1.740426090756759</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.064614451478601</v>
@@ -40626,7 +40476,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.742932503845759</v>
+        <v>1.73950082527316</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.808181382308749</v>
@@ -40715,7 +40565,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.740791702339763</v>
+        <v>1.734066241150819</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.725691419045476</v>
@@ -40804,7 +40654,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.75947552889523</v>
+        <v>1.744877024511656</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.090176420587921</v>
@@ -40893,7 +40743,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.744607686676101</v>
+        <v>1.733605041946028</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.427735028289011</v>
@@ -40982,7 +40832,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.725819489515963</v>
+        <v>1.709245901798824</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.729013229873435</v>
@@ -41071,7 +40921,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729384690679681</v>
+        <v>1.715374572855532</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.28430885080988</v>
@@ -41160,7 +41010,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.707464140640168</v>
+        <v>1.697400723500962</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.13794077451707</v>
@@ -41249,7 +41099,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.703178714544798</v>
+        <v>1.688515329196526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.210001485984948</v>
@@ -41338,7 +41188,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694551505554206</v>
+        <v>1.68017411140608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.142706636861122</v>
@@ -41427,7 +41277,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703426813451749</v>
+        <v>1.686700932104913</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.150221630963866</v>
@@ -41516,7 +41366,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668996681735955</v>
+        <v>1.657892564625867</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.152485276409872</v>
@@ -41605,7 +41455,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.64581701055261</v>
+        <v>1.641488213132782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.136583956265752</v>
@@ -41694,7 +41544,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622173198222394</v>
+        <v>1.621112125306371</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.928960690947037</v>
@@ -41783,7 +41633,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.625720836835816</v>
+        <v>1.625902203060902</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.095126681480757</v>
@@ -41872,7 +41722,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.625695787542684</v>
+        <v>1.630544996307851</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.098695595415708</v>
@@ -41961,7 +41811,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624901415397254</v>
+        <v>1.63388749379065</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.048622055593341</v>
@@ -42050,7 +41900,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.625820290532397</v>
+        <v>1.626900543620245</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.012741415714054</v>
@@ -42139,7 +41989,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.620349400797672</v>
+        <v>1.620008784308977</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.087626495241878</v>
@@ -42228,7 +42078,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.629902998339634</v>
+        <v>1.624995196263543</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.019746447589484</v>
@@ -42317,7 +42167,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.635821361420128</v>
+        <v>1.62970642920737</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.055439211525712</v>
@@ -42406,7 +42256,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.628595643585956</v>
+        <v>1.628720342029714</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.853451223059955</v>
@@ -42495,7 +42345,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.641123416555727</v>
+        <v>1.639663792672435</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.919253580504849</v>
@@ -42584,7 +42434,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.629266909218505</v>
+        <v>1.626398091219769</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.682920741110886</v>
@@ -42673,7 +42523,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.6059146062211</v>
+        <v>1.612681825602245</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.880315714156561</v>
@@ -42762,7 +42612,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.595675775440188</v>
+        <v>1.602982641098792</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.840045248716014</v>
@@ -42851,7 +42701,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606405464365654</v>
+        <v>1.605754139326785</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.927848688006641</v>
@@ -42940,7 +42790,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.629679526944281</v>
+        <v>1.624433691923488</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.55486830635933</v>
@@ -43029,7 +42879,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.649020751199184</v>
+        <v>1.640804942346658</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.676770617067879</v>
@@ -43118,7 +42968,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.63473462356857</v>
+        <v>1.62570345415272</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.560727307917875</v>
@@ -43207,7 +43057,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.620620424780447</v>
+        <v>1.612610213638919</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.805338265622456</v>
@@ -43296,7 +43146,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.621923855374387</v>
+        <v>1.61537726540379</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.788858894562225</v>
@@ -43385,7 +43235,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.623270725281507</v>
+        <v>1.628932591758857</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.735182724044828</v>
@@ -43474,7 +43324,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.636881774006025</v>
+        <v>1.647509003519264</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.094767926033964</v>
@@ -43563,7 +43413,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.636739319333118</v>
+        <v>1.649412975085307</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.878013296968994</v>
@@ -43652,7 +43502,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.650464595458326</v>
+        <v>1.665254837326339</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.042219978267021</v>
